--- a/results/FC3.3/FC3.3_512.11 GB_BPC0_HMB_OFF.xlsx
+++ b/results/FC3.3/FC3.3_512.11 GB_BPC0_HMB_OFF.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1000300665\Desktop\Temp_2\FVT\PBM\Performance_Benchmark_Automaton\results\FC3.3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF301EA-B8BA-4260-91E8-0FA5028BE80E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="370" windowWidth="19420" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -130,8 +136,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,6 +212,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -252,7 +266,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -284,9 +298,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -318,6 +350,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -493,19 +543,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="4.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.1796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -513,7 +582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -521,7 +590,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
@@ -568,7 +637,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -588,7 +657,7 @@
         <v>32</v>
       </c>
       <c r="G6" s="2">
-        <v>17.9</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="H6" s="2">
         <v>2341</v>
@@ -618,7 +687,7 @@
         <v>3916</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -668,7 +737,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -718,7 +787,7 @@
         <v>5538</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -738,7 +807,7 @@
         <v>32</v>
       </c>
       <c r="G9" s="2">
-        <v>39.3</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="H9" s="2">
         <v>5148</v>
@@ -768,7 +837,7 @@
         <v>3654</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -818,7 +887,7 @@
         <v>11863</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -868,7 +937,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -888,13 +957,13 @@
         <v>32</v>
       </c>
       <c r="G12" s="2">
-        <v>90.90000000000001</v>
+        <v>90.9</v>
       </c>
       <c r="H12" s="2">
         <v>372</v>
       </c>
       <c r="I12" s="2">
-        <v>9.699999999999999</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="J12" s="2">
         <v>10</v>
@@ -918,7 +987,7 @@
         <v>6849</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -938,10 +1007,10 @@
         <v>32</v>
       </c>
       <c r="G13" s="2">
-        <v>9.832000000000001</v>
+        <v>9.8320000000000007</v>
       </c>
       <c r="H13" s="2">
-        <v>40.3</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="I13" s="2">
         <v>100.52</v>
